--- a/LegacySystem/src/main/resources/excel/order.xlsx
+++ b/LegacySystem/src/main/resources/excel/order.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20367"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\学科\大四上\互联网+实践\code\InternetPlusProject\LegacySystem\src\main\resources\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21367B89-D184-4E7A-9825-B2009A64543B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,14 +43,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,345 +58,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -419,251 +96,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -681,61 +116,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -993,25 +384,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4" spans="1:6">
+    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="17.4" spans="1:6">
+    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>418477</v>
       </c>
@@ -1047,7 +439,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" ht="17.4" spans="1:6">
+    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>418006</v>
       </c>
@@ -1063,7 +455,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" ht="17.4" spans="1:6">
+    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>764486</v>
       </c>
@@ -1079,7 +471,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" ht="17.4" spans="1:6">
+    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>418575</v>
       </c>
@@ -1095,7 +487,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" ht="17.4" spans="1:6">
+    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>418343</v>
       </c>
@@ -1111,7 +503,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" ht="17.4" spans="1:6">
+    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>417826</v>
       </c>
@@ -1127,7 +519,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" ht="17.4" spans="1:6">
+    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>418299</v>
       </c>
@@ -1143,7 +535,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" ht="17.4" spans="1:6">
+    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>418351</v>
       </c>
@@ -1159,7 +551,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" ht="17.4" spans="1:6">
+    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>764374</v>
       </c>
@@ -1175,7 +567,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" ht="17.4" spans="1:6">
+    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>763634</v>
       </c>
@@ -1191,7 +583,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" ht="17.4" spans="1:6">
+    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>418483</v>
       </c>
@@ -1207,7 +599,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" ht="17.4" spans="1:6">
+    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>418322</v>
       </c>
@@ -1223,7 +615,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" ht="17.4" spans="1:6">
+    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>763623</v>
       </c>
@@ -1239,7 +631,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" ht="17.4" spans="1:6">
+    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>417642</v>
       </c>
@@ -1255,7 +647,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" ht="17.4" spans="1:6">
+    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>418441</v>
       </c>
@@ -1271,7 +663,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" ht="17.4" spans="1:6">
+    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>418194</v>
       </c>
@@ -1287,7 +679,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" ht="17.4" spans="1:6">
+    <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>762904</v>
       </c>
@@ -1303,7 +695,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" ht="17.4" spans="1:6">
+    <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>414837</v>
       </c>
@@ -1319,7 +711,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" ht="17.4" spans="1:6">
+    <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>418433</v>
       </c>
@@ -1335,7 +727,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" ht="17.4" spans="1:6">
+    <row r="21" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>418652</v>
       </c>
@@ -1351,7 +743,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" ht="17.4" spans="1:6">
+    <row r="22" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>417835</v>
       </c>
@@ -1367,7 +759,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" ht="17.4" spans="1:6">
+    <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>418320</v>
       </c>
@@ -1383,7 +775,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" ht="17.4" spans="1:6">
+    <row r="24" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>416701</v>
       </c>
@@ -1399,7 +791,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" ht="17.4" spans="1:6">
+    <row r="25" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>762917</v>
       </c>
@@ -1415,7 +807,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" ht="17.4" spans="1:6">
+    <row r="26" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>417241</v>
       </c>
@@ -1431,7 +823,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" ht="17.4" spans="1:6">
+    <row r="27" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>764340</v>
       </c>
@@ -1447,9 +839,9 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" ht="17.4" spans="1:6">
+    <row r="28" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>764104</v>
+        <v>764105</v>
       </c>
       <c r="B28" s="1">
         <v>3211498</v>
@@ -1463,7 +855,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" ht="17.4" spans="1:6">
+    <row r="29" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>763150</v>
       </c>
@@ -1479,7 +871,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" ht="17.4" spans="1:6">
+    <row r="30" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>764104</v>
       </c>
@@ -1495,7 +887,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" ht="17.4" spans="1:6">
+    <row r="31" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>764310</v>
       </c>
@@ -1511,7 +903,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" ht="17.4" spans="1:6">
+    <row r="32" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>418315</v>
       </c>
@@ -1527,7 +919,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" ht="17.4" spans="1:6">
+    <row r="33" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>418480</v>
       </c>
@@ -1543,7 +935,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" ht="17.4" spans="1:6">
+    <row r="34" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>417858</v>
       </c>
@@ -1559,7 +951,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" ht="17.4" spans="1:6">
+    <row r="35" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>418475</v>
       </c>
@@ -1575,7 +967,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" ht="17.4" spans="1:6">
+    <row r="36" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>413095</v>
       </c>
@@ -1591,7 +983,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" ht="17.4" spans="1:6">
+    <row r="37" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>764098</v>
       </c>
@@ -1607,7 +999,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" ht="17.4" spans="1:6">
+    <row r="38" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>417209</v>
       </c>
@@ -1623,7 +1015,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" ht="17.4" spans="1:6">
+    <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>418295</v>
       </c>
@@ -1639,7 +1031,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" ht="17.4" spans="1:6">
+    <row r="40" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>761538</v>
       </c>
@@ -1655,7 +1047,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" ht="17.4" spans="1:6">
+    <row r="41" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>764087</v>
       </c>
@@ -1671,7 +1063,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" ht="17.4" spans="1:6">
+    <row r="42" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>417194</v>
       </c>
@@ -1687,7 +1079,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" ht="17.4" spans="1:6">
+    <row r="43" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>418467</v>
       </c>
@@ -1703,7 +1095,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" ht="17.4" spans="1:6">
+    <row r="44" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>762288</v>
       </c>
@@ -1719,7 +1111,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" ht="17.4" spans="1:6">
+    <row r="45" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>763131</v>
       </c>
@@ -1735,7 +1127,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" ht="17.4" spans="1:6">
+    <row r="46" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>418443</v>
       </c>
@@ -1751,7 +1143,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" ht="17.4" spans="1:6">
+    <row r="47" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>761202</v>
       </c>
@@ -1767,7 +1159,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" ht="17.4" spans="1:6">
+    <row r="48" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>418362</v>
       </c>
@@ -1783,7 +1175,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" ht="17.4" spans="1:6">
+    <row r="49" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>417803</v>
       </c>
@@ -1799,7 +1191,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" ht="17.4" spans="1:6">
+    <row r="50" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>418445</v>
       </c>
@@ -1815,7 +1207,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" ht="17.4" spans="1:6">
+    <row r="51" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>418436</v>
       </c>
@@ -1831,7 +1223,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" ht="17.4" spans="1:6">
+    <row r="52" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>418127</v>
       </c>
@@ -1847,7 +1239,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" ht="17.4" spans="1:6">
+    <row r="53" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>416588</v>
       </c>
@@ -1863,7 +1255,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" ht="17.4" spans="1:6">
+    <row r="54" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>418478</v>
       </c>
@@ -1879,7 +1271,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" ht="17.4" spans="1:6">
+    <row r="55" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>418457</v>
       </c>
@@ -1895,7 +1287,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" ht="17.4" spans="1:6">
+    <row r="56" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>417256</v>
       </c>
@@ -1911,7 +1303,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" ht="17.4" spans="1:6">
+    <row r="57" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>417509</v>
       </c>
@@ -1927,7 +1319,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" ht="17.4" spans="1:6">
+    <row r="58" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>417749</v>
       </c>
@@ -1943,7 +1335,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" ht="17.4" spans="1:6">
+    <row r="59" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>418479</v>
       </c>
@@ -1959,7 +1351,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" ht="17.4" spans="1:6">
+    <row r="60" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>418437</v>
       </c>
@@ -1975,7 +1367,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" ht="17.4" spans="1:6">
+    <row r="61" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>416262</v>
       </c>
@@ -1991,7 +1383,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" ht="17.4" spans="1:6">
+    <row r="62" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>418449</v>
       </c>
@@ -2007,7 +1399,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" ht="17.4" spans="1:6">
+    <row r="63" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>417816</v>
       </c>
@@ -2023,7 +1415,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" ht="17.4" spans="1:6">
+    <row r="64" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>418448</v>
       </c>
@@ -2039,7 +1431,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" ht="17.4" spans="1:6">
+    <row r="65" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>417608</v>
       </c>
@@ -2055,7 +1447,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" ht="17.4" spans="1:6">
+    <row r="66" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>418458</v>
       </c>
@@ -2071,7 +1463,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" ht="17.4" spans="1:6">
+    <row r="67" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>418459</v>
       </c>
@@ -2087,7 +1479,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" ht="17.4" spans="1:6">
+    <row r="68" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>416593</v>
       </c>
@@ -2103,7 +1495,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" ht="17.4" spans="1:6">
+    <row r="69" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>418545</v>
       </c>
@@ -2119,7 +1511,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" ht="17.4" spans="1:6">
+    <row r="70" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>418547</v>
       </c>
@@ -2135,7 +1527,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" ht="17.4" spans="1:6">
+    <row r="71" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>418580</v>
       </c>
@@ -2151,7 +1543,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" ht="17.4" spans="1:6">
+    <row r="72" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>416153</v>
       </c>
@@ -2167,7 +1559,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" ht="17.4" spans="1:6">
+    <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>418438</v>
       </c>
@@ -2183,7 +1575,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" ht="17.4" spans="1:6">
+    <row r="74" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>416272</v>
       </c>
@@ -2199,7 +1591,7 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" ht="17.4" spans="1:6">
+    <row r="75" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>417174</v>
       </c>
@@ -2215,7 +1607,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" ht="17.4" spans="1:6">
+    <row r="76" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>762485</v>
       </c>
@@ -2231,7 +1623,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" ht="17.4" spans="1:6">
+    <row r="77" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>762838</v>
       </c>
@@ -2247,7 +1639,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" ht="17.4" spans="1:6">
+    <row r="78" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>417830</v>
       </c>
@@ -2263,7 +1655,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" ht="17.4" spans="1:6">
+    <row r="79" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>416621</v>
       </c>
@@ -2294,7 +1686,8 @@
     <protectedRange sqref="A78:B78" name="区域1_20"/>
     <protectedRange sqref="A79:B79" name="区域1_21"/>
   </protectedRanges>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LegacySystem/src/main/resources/excel/order.xlsx
+++ b/LegacySystem/src/main/resources/excel/order.xlsx
@@ -40,11 +40,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,11 +58,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -89,13 +84,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,6 +96,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -122,22 +117,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -146,6 +125,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -162,53 +187,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,181 +224,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,6 +445,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -465,11 +469,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,6 +499,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -503,183 +524,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -687,12 +682,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,7 +1006,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88392857142857" defaultRowHeight="12.8" outlineLevelCol="5"/>
@@ -1048,432 +1037,432 @@
       </c>
     </row>
     <row r="2" ht="16.8" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>418477</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>3246515</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>7700</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>43413</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" ht="16.8" spans="1:6">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>418006</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>1413036</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>44600</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>43413</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" ht="16.8" spans="1:6">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>764486</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>1413036</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>30000</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>43413</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" ht="16.8" spans="1:6">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>418575</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>3246515</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>8400</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>43413</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" ht="16.8" spans="1:6">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>418351</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>3247967</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>100</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>43413</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" ht="16.8" spans="1:6">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>764374</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>3247967</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>200</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>43418</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" ht="16.8" spans="1:6">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>418483</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>3246418</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>3200</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>43418</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" ht="16.8" spans="1:6">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>418322</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>3048823</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>6000</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>43418</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" ht="16.8" spans="1:6">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>763623</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>3213124</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>100</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>43418</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" ht="16.8" spans="1:6">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>417642</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>3213124</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>1500</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>43419</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" ht="16.8" spans="1:6">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>418194</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>3005840</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>200</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>43419</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" ht="16.8" spans="1:6">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>762904</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>3005840</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>4800</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>43419</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" ht="16.8" spans="1:6">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>414837</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>3005837</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>6400</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>43419</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" ht="16.8" spans="1:6">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>418433</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>3246418</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>5500</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>43419</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" ht="16.8" spans="1:6">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>418652</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>3048823</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>5000</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>43420</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" ht="16.8" spans="1:6">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <v>762917</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>3050015</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>8100</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>43423</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" ht="16.8" spans="1:6">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <v>764104</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>3211498</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>1900</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>43424</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" ht="16.8" spans="1:6">
-      <c r="A19" s="3">
+      <c r="A19" s="1">
         <v>764310</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="1">
         <v>3211498</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>2100</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>43424</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" ht="16.8" spans="1:6">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <v>764098</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="1">
         <v>3209248</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>1620</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>43425</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" ht="16.8" spans="1:6">
-      <c r="A21" s="3">
+      <c r="A21" s="1">
         <v>764087</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>3000607</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>3400</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>43426</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" ht="16.8" spans="1:6">
-      <c r="A22" s="3">
+      <c r="A22" s="1">
         <v>417194</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <v>3000607</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>500</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>43426</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" ht="16.8" spans="1:6">
-      <c r="A23" s="3">
+      <c r="A23" s="1">
         <v>763131</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="1">
         <v>3050015</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>2700</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>43427</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" ht="16.8" spans="1:6">
-      <c r="A24" s="3">
+      <c r="A24" s="1">
         <v>417174</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="1">
         <v>3059786</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>11400</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <v>43439</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" ht="16.8" spans="1:6">
-      <c r="A25" s="3">
+      <c r="A25" s="1">
         <v>762485</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="1">
         <v>3209248</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>1980</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="2">
         <v>43450</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" ht="16.8" spans="1:6">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>762838</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="1">
         <v>1302215</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <v>21000</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="2">
         <v>43441</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" ht="16.8" spans="1:6">
-      <c r="A27" s="3">
+      <c r="A27" s="1">
         <v>417830</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="1">
         <v>3031238</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <v>5000</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="2">
         <v>43452</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" ht="16.8" spans="1:6">
-      <c r="A28" s="3">
+      <c r="A28" s="1">
         <v>416621</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="1">
         <v>3036466</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="1">
         <v>3250</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="2">
         <v>43454</v>
       </c>
       <c r="E28" s="1"/>

--- a/LegacySystem/src/main/resources/excel/order.xlsx
+++ b/LegacySystem/src/main/resources/excel/order.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大四上文件\面向互联网+实践\InternetPlusProject\LegacySystem\src\main\resources\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4992CE0F-86C9-4B4C-A89D-65D05C794071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24040" windowHeight="13120"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>订单号</t>
   </si>
@@ -37,14 +43,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,352 +58,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -426,251 +95,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -685,61 +112,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -997,26 +380,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88392857142857" defaultRowHeight="12.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.55357142857143" customWidth="1"/>
-    <col min="2" max="2" width="16.4375" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:6">
+    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:6">
+    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>418477</v>
       </c>
@@ -1052,7 +435,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" ht="16.8" spans="1:6">
+    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>418006</v>
       </c>
@@ -1068,7 +451,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" ht="16.8" spans="1:6">
+    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>764486</v>
       </c>
@@ -1084,7 +467,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" ht="16.8" spans="1:6">
+    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>418575</v>
       </c>
@@ -1100,7 +483,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" ht="16.8" spans="1:6">
+    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>418351</v>
       </c>
@@ -1116,7 +499,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" ht="16.8" spans="1:6">
+    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>764374</v>
       </c>
@@ -1127,12 +510,12 @@
         <v>200</v>
       </c>
       <c r="D7" s="2">
-        <v>43418</v>
+        <v>43413</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" ht="16.8" spans="1:6">
+    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>418483</v>
       </c>
@@ -1143,12 +526,12 @@
         <v>3200</v>
       </c>
       <c r="D8" s="2">
-        <v>43418</v>
+        <v>43413</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" ht="16.8" spans="1:6">
+    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>418322</v>
       </c>
@@ -1159,12 +542,12 @@
         <v>6000</v>
       </c>
       <c r="D9" s="2">
-        <v>43418</v>
+        <v>43414</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" ht="16.8" spans="1:6">
+    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>763623</v>
       </c>
@@ -1175,12 +558,12 @@
         <v>100</v>
       </c>
       <c r="D10" s="2">
-        <v>43418</v>
+        <v>43414</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" ht="16.8" spans="1:6">
+    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>417642</v>
       </c>
@@ -1191,12 +574,12 @@
         <v>1500</v>
       </c>
       <c r="D11" s="2">
-        <v>43419</v>
+        <v>43414</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" ht="16.8" spans="1:6">
+    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>418194</v>
       </c>
@@ -1207,12 +590,12 @@
         <v>200</v>
       </c>
       <c r="D12" s="2">
-        <v>43419</v>
+        <v>43415</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" ht="16.8" spans="1:6">
+    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>762904</v>
       </c>
@@ -1223,12 +606,12 @@
         <v>4800</v>
       </c>
       <c r="D13" s="2">
-        <v>43419</v>
+        <v>43415</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" ht="16.8" spans="1:6">
+    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>414837</v>
       </c>
@@ -1239,12 +622,12 @@
         <v>6400</v>
       </c>
       <c r="D14" s="2">
-        <v>43419</v>
+        <v>43415</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" ht="16.8" spans="1:6">
+    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>418433</v>
       </c>
@@ -1255,12 +638,12 @@
         <v>5500</v>
       </c>
       <c r="D15" s="2">
-        <v>43419</v>
+        <v>43416</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" ht="16.8" spans="1:6">
+    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>418652</v>
       </c>
@@ -1271,12 +654,12 @@
         <v>5000</v>
       </c>
       <c r="D16" s="2">
-        <v>43420</v>
+        <v>43416</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" ht="16.8" spans="1:6">
+    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>762917</v>
       </c>
@@ -1287,12 +670,12 @@
         <v>8100</v>
       </c>
       <c r="D17" s="2">
-        <v>43423</v>
+        <v>43416</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" ht="16.8" spans="1:6">
+    <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>764104</v>
       </c>
@@ -1303,12 +686,12 @@
         <v>1900</v>
       </c>
       <c r="D18" s="2">
-        <v>43424</v>
+        <v>43416</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" ht="16.8" spans="1:6">
+    <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>764310</v>
       </c>
@@ -1319,12 +702,12 @@
         <v>2100</v>
       </c>
       <c r="D19" s="2">
-        <v>43424</v>
+        <v>43417</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" ht="16.8" spans="1:6">
+    <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>764098</v>
       </c>
@@ -1335,12 +718,12 @@
         <v>1620</v>
       </c>
       <c r="D20" s="2">
-        <v>43425</v>
+        <v>43418</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" ht="16.8" spans="1:6">
+    <row r="21" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>764087</v>
       </c>
@@ -1351,12 +734,12 @@
         <v>3400</v>
       </c>
       <c r="D21" s="2">
-        <v>43426</v>
+        <v>43418</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" ht="16.8" spans="1:6">
+    <row r="22" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>417194</v>
       </c>
@@ -1367,12 +750,12 @@
         <v>500</v>
       </c>
       <c r="D22" s="2">
-        <v>43426</v>
+        <v>43419</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" ht="16.8" spans="1:6">
+    <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>763131</v>
       </c>
@@ -1383,12 +766,12 @@
         <v>2700</v>
       </c>
       <c r="D23" s="2">
-        <v>43427</v>
+        <v>43419</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" ht="16.8" spans="1:6">
+    <row r="24" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>417174</v>
       </c>
@@ -1399,12 +782,12 @@
         <v>11400</v>
       </c>
       <c r="D24" s="2">
-        <v>43439</v>
+        <v>43419</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" ht="16.8" spans="1:6">
+    <row r="25" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>762485</v>
       </c>
@@ -1415,12 +798,12 @@
         <v>1980</v>
       </c>
       <c r="D25" s="2">
-        <v>43450</v>
+        <v>43419</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" ht="16.8" spans="1:6">
+    <row r="26" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>762838</v>
       </c>
@@ -1431,12 +814,12 @@
         <v>21000</v>
       </c>
       <c r="D26" s="2">
-        <v>43441</v>
+        <v>43420</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" ht="16.8" spans="1:6">
+    <row r="27" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>417830</v>
       </c>
@@ -1447,12 +830,12 @@
         <v>5000</v>
       </c>
       <c r="D27" s="2">
-        <v>43452</v>
+        <v>43421</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" ht="16.8" spans="1:6">
+    <row r="28" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>416621</v>
       </c>
@@ -1463,14 +846,14 @@
         <v>3250</v>
       </c>
       <c r="D28" s="2">
-        <v>43454</v>
+        <v>43421</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LegacySystem/src/main/resources/excel/order.xlsx
+++ b/LegacySystem/src/main/resources/excel/order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大四上文件\面向互联网+实践\InternetPlusProject\LegacySystem\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4992CE0F-86C9-4B4C-A89D-65D05C794071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D730AB13-5E8D-4BD0-9477-C3A1FED3B276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -427,7 +427,7 @@
         <v>3246515</v>
       </c>
       <c r="C2" s="1">
-        <v>7700</v>
+        <v>3500</v>
       </c>
       <c r="D2" s="2">
         <v>43413</v>
@@ -443,7 +443,7 @@
         <v>1413036</v>
       </c>
       <c r="C3" s="1">
-        <v>44600</v>
+        <v>4600</v>
       </c>
       <c r="D3" s="2">
         <v>43413</v>
@@ -459,7 +459,7 @@
         <v>1413036</v>
       </c>
       <c r="C4" s="1">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="D4" s="2">
         <v>43413</v>
@@ -475,7 +475,7 @@
         <v>3246515</v>
       </c>
       <c r="C5" s="1">
-        <v>8400</v>
+        <v>2100</v>
       </c>
       <c r="D5" s="2">
         <v>43413</v>
@@ -539,7 +539,7 @@
         <v>3048823</v>
       </c>
       <c r="C9" s="1">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="D9" s="2">
         <v>43414</v>
@@ -603,7 +603,7 @@
         <v>3005840</v>
       </c>
       <c r="C13" s="1">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="D13" s="2">
         <v>43415</v>
@@ -619,7 +619,7 @@
         <v>3005837</v>
       </c>
       <c r="C14" s="1">
-        <v>6400</v>
+        <v>3200</v>
       </c>
       <c r="D14" s="2">
         <v>43415</v>
@@ -635,7 +635,7 @@
         <v>3246418</v>
       </c>
       <c r="C15" s="1">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="D15" s="2">
         <v>43416</v>
@@ -651,7 +651,7 @@
         <v>3048823</v>
       </c>
       <c r="C16" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="D16" s="2">
         <v>43416</v>
@@ -667,7 +667,7 @@
         <v>3050015</v>
       </c>
       <c r="C17" s="1">
-        <v>8100</v>
+        <v>4000</v>
       </c>
       <c r="D17" s="2">
         <v>43416</v>
@@ -731,7 +731,7 @@
         <v>3000607</v>
       </c>
       <c r="C21" s="1">
-        <v>3400</v>
+        <v>1700</v>
       </c>
       <c r="D21" s="2">
         <v>43418</v>
@@ -779,7 +779,7 @@
         <v>3059786</v>
       </c>
       <c r="C24" s="1">
-        <v>11400</v>
+        <v>1400</v>
       </c>
       <c r="D24" s="2">
         <v>43419</v>
@@ -811,7 +811,7 @@
         <v>1302215</v>
       </c>
       <c r="C26" s="1">
-        <v>21000</v>
+        <v>2100</v>
       </c>
       <c r="D26" s="2">
         <v>43420</v>
@@ -827,7 +827,7 @@
         <v>3031238</v>
       </c>
       <c r="C27" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="D27" s="2">
         <v>43421</v>

--- a/LegacySystem/src/main/resources/excel/order.xlsx
+++ b/LegacySystem/src/main/resources/excel/order.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大四上文件\面向互联网+实践\InternetPlusProject\LegacySystem\src\main\resources\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D730AB13-5E8D-4BD0-9477-C3A1FED3B276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23500" windowHeight="12980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>订单号</t>
   </si>
@@ -43,8 +37,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,21 +58,352 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -95,9 +426,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -112,17 +685,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -380,26 +997,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88392857142857" defaultRowHeight="12.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.55357142857143" customWidth="1"/>
+    <col min="2" max="2" width="16.4375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" ht="16.8" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +1036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" ht="16.8" spans="1:6">
       <c r="A2" s="1">
         <v>418477</v>
       </c>
@@ -435,7 +1052,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" ht="16.8" spans="1:6">
       <c r="A3" s="1">
         <v>418006</v>
       </c>
@@ -451,7 +1068,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="4" ht="16.8" spans="1:6">
       <c r="A4" s="1">
         <v>764486</v>
       </c>
@@ -462,12 +1079,12 @@
         <v>3000</v>
       </c>
       <c r="D4" s="2">
-        <v>43413</v>
+        <v>43414</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="5" ht="16.8" spans="1:6">
       <c r="A5" s="1">
         <v>418575</v>
       </c>
@@ -478,12 +1095,12 @@
         <v>2100</v>
       </c>
       <c r="D5" s="2">
-        <v>43413</v>
+        <v>43415</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" ht="16.8" spans="1:6">
       <c r="A6" s="1">
         <v>418351</v>
       </c>
@@ -491,15 +1108,15 @@
         <v>3247967</v>
       </c>
       <c r="C6" s="1">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="D6" s="2">
-        <v>43413</v>
+        <v>43416</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="7" ht="16.8" spans="1:6">
       <c r="A7" s="1">
         <v>764374</v>
       </c>
@@ -507,15 +1124,15 @@
         <v>3247967</v>
       </c>
       <c r="C7" s="1">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="D7" s="2">
-        <v>43413</v>
+        <v>43416</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" ht="16.8" spans="1:6">
       <c r="A8" s="1">
         <v>418483</v>
       </c>
@@ -526,12 +1143,12 @@
         <v>3200</v>
       </c>
       <c r="D8" s="2">
-        <v>43413</v>
+        <v>43417</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" ht="16.8" spans="1:6">
       <c r="A9" s="1">
         <v>418322</v>
       </c>
@@ -542,12 +1159,12 @@
         <v>3000</v>
       </c>
       <c r="D9" s="2">
-        <v>43414</v>
+        <v>43417</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="10" ht="16.8" spans="1:6">
       <c r="A10" s="1">
         <v>763623</v>
       </c>
@@ -555,15 +1172,15 @@
         <v>3213124</v>
       </c>
       <c r="C10" s="1">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="D10" s="2">
-        <v>43414</v>
+        <v>43418</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" ht="16.8" spans="1:6">
       <c r="A11" s="1">
         <v>417642</v>
       </c>
@@ -571,15 +1188,15 @@
         <v>3213124</v>
       </c>
       <c r="C11" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="D11" s="2">
-        <v>43414</v>
+        <v>43418</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="12" ht="16.8" spans="1:6">
       <c r="A12" s="1">
         <v>418194</v>
       </c>
@@ -587,15 +1204,15 @@
         <v>3005840</v>
       </c>
       <c r="C12" s="1">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="D12" s="2">
-        <v>43415</v>
+        <v>43419</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" ht="16.8" spans="1:6">
       <c r="A13" s="1">
         <v>762904</v>
       </c>
@@ -606,12 +1223,12 @@
         <v>2400</v>
       </c>
       <c r="D13" s="2">
-        <v>43415</v>
+        <v>43419</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="14" ht="16.8" spans="1:6">
       <c r="A14" s="1">
         <v>414837</v>
       </c>
@@ -622,12 +1239,12 @@
         <v>3200</v>
       </c>
       <c r="D14" s="2">
-        <v>43415</v>
+        <v>43420</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="15" ht="16.8" spans="1:6">
       <c r="A15" s="1">
         <v>418433</v>
       </c>
@@ -638,12 +1255,12 @@
         <v>2500</v>
       </c>
       <c r="D15" s="2">
-        <v>43416</v>
+        <v>43422</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="16" ht="16.8" spans="1:6">
       <c r="A16" s="1">
         <v>418652</v>
       </c>
@@ -654,12 +1271,12 @@
         <v>2500</v>
       </c>
       <c r="D16" s="2">
-        <v>43416</v>
+        <v>43423</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="17" ht="16.8" spans="1:6">
       <c r="A17" s="1">
         <v>762917</v>
       </c>
@@ -667,15 +1284,15 @@
         <v>3050015</v>
       </c>
       <c r="C17" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D17" s="2">
-        <v>43416</v>
+        <v>43424</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="18" ht="16.8" spans="1:6">
       <c r="A18" s="1">
         <v>764104</v>
       </c>
@@ -683,15 +1300,15 @@
         <v>3211498</v>
       </c>
       <c r="C18" s="1">
-        <v>1900</v>
+        <v>3000</v>
       </c>
       <c r="D18" s="2">
-        <v>43416</v>
+        <v>43426</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="19" ht="16.8" spans="1:6">
       <c r="A19" s="1">
         <v>764310</v>
       </c>
@@ -702,12 +1319,12 @@
         <v>2100</v>
       </c>
       <c r="D19" s="2">
-        <v>43417</v>
+        <v>43427</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="20" ht="16.8" spans="1:6">
       <c r="A20" s="1">
         <v>764098</v>
       </c>
@@ -718,12 +1335,12 @@
         <v>1620</v>
       </c>
       <c r="D20" s="2">
-        <v>43418</v>
+        <v>43428</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="21" ht="16.8" spans="1:6">
       <c r="A21" s="1">
         <v>764087</v>
       </c>
@@ -734,126 +1351,14 @@
         <v>1700</v>
       </c>
       <c r="D21" s="2">
-        <v>43418</v>
+        <v>43429</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>417194</v>
-      </c>
-      <c r="B22" s="1">
-        <v>3000607</v>
-      </c>
-      <c r="C22" s="1">
-        <v>500</v>
-      </c>
-      <c r="D22" s="2">
-        <v>43419</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>763131</v>
-      </c>
-      <c r="B23" s="1">
-        <v>3050015</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2700</v>
-      </c>
-      <c r="D23" s="2">
-        <v>43419</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>417174</v>
-      </c>
-      <c r="B24" s="1">
-        <v>3059786</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1400</v>
-      </c>
-      <c r="D24" s="2">
-        <v>43419</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>762485</v>
-      </c>
-      <c r="B25" s="1">
-        <v>3209248</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1980</v>
-      </c>
-      <c r="D25" s="2">
-        <v>43419</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>762838</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1302215</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2100</v>
-      </c>
-      <c r="D26" s="2">
-        <v>43420</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>417830</v>
-      </c>
-      <c r="B27" s="1">
-        <v>3031238</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2500</v>
-      </c>
-      <c r="D27" s="2">
-        <v>43421</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>416621</v>
-      </c>
-      <c r="B28" s="1">
-        <v>3036466</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3250</v>
-      </c>
-      <c r="D28" s="2">
-        <v>43421</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>